--- a/MMF.xlsx
+++ b/MMF.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="55">
   <si>
     <r>
       <rPr>
@@ -1297,7 +1297,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2560,8 +2560,8 @@
       <c r="N29" s="17">
         <v>1000</v>
       </c>
-      <c r="O29" s="29" t="s">
-        <v>54</v>
+      <c r="O29" s="30" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -2607,7 +2607,9 @@
       <c r="N30" s="17">
         <v>1000</v>
       </c>
-      <c r="O30" s="28"/>
+      <c r="O30" s="30" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
@@ -2699,7 +2701,9 @@
       <c r="N32" s="17">
         <v>1000</v>
       </c>
-      <c r="O32" s="28"/>
+      <c r="O32" s="30" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
@@ -2791,7 +2795,9 @@
       <c r="N34" s="17">
         <v>1000</v>
       </c>
-      <c r="O34" s="28"/>
+      <c r="O34" s="30" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/MMF.xlsx
+++ b/MMF.xlsx
@@ -2795,8 +2795,8 @@
       <c r="N34" s="17">
         <v>1000</v>
       </c>
-      <c r="O34" s="30" t="s">
-        <v>51</v>
+      <c r="O34" s="29" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
